--- a/data/contracts_registry.xlsx
+++ b/data/contracts_registry.xlsx
@@ -1,35 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="14355" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="120" yWindow="60" windowWidth="14355" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Registry" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,19 +57,87 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -349,36 +427,245 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="7.7109375" customWidth="1" min="1" max="1"/>
+    <col width="33.140625" customWidth="1" min="2" max="2"/>
+    <col width="12.28515625" customWidth="1" min="3" max="3"/>
+    <col width="19.5703125" customWidth="1" min="4" max="4"/>
+    <col width="18.140625" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="29.25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Номер</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Номер договора</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Телефон</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Индекс </t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Дата</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Терешкова Терешкова Терешкова</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1-ИП</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>+7 985 302-49-22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>49 22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>16.09.2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Иванов Иванов Иванов</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2-ИП</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>+7 985 302-49-22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>49 22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>16.09.2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Иванов Иван Иванович</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3-ИП</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>+8 918 342-34-35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78 08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>16.09.2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1 1 1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4-ИП</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>+7 918 413-32-45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>17.09.2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Терешкова Терешкова Терешкова</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5-ИП</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>+7 985 302-49-22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>49 22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>16.09.2025</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/contracts_registry.xlsx
+++ b/data/contracts_registry.xlsx
@@ -11,7 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -432,10 +432,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -481,26 +481,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Терешкова Терешкова Терешкова</t>
+          <t>Иванов Иван Иванович</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1-ИП</t>
+          <t>101-ИП</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+7 985 302-49-22</t>
+          <t>+8 918 342-34-35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>49 22</t>
+          <t>78 08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2-ИП</t>
+          <t>102-ИП</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -541,26 +541,26 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Иванов Иван Иванович</t>
+          <t>Терешкова Терешкова Терешкова</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3-ИП</t>
+          <t>103-ИП</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+8 918 342-34-35</t>
+          <t>+7 985 302-49-22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>78 08</t>
+          <t>49 22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -575,55 +575,235 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1 1 1</t>
+          <t>Терешкова Терешкова Терешкова</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4-ИП</t>
+          <t>104-ИП</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+7 918 413-32-45</t>
+          <t>+7 985 302-49-22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>49 22</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>17.09.2025</t>
+          <t>16.09.2025</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>1 1 1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>105-ИП</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>+7 918 413-32-45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>17.09.2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Терешкова Терешкова Терешкова</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>5-ИП</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>106-ИП</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>+7 985 302-49-22</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>49 22</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>16.09.2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Иванов Иван Иванович</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>107-ИП</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>+8 918 342-34-35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78 08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>16.09.2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Терешкова Терешкова Терешкова</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>108-ИП</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>+7 985 302-49-22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>49 22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>16.09.2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Терешкова Терешкова Терешкова</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>109-ИП</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>+7 985 302-49-22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>49 22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>16.09.2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Иванов Иван Иванович</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>110-ИП</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>+8 918 342-34-35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78 08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>16.09.2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Терешкова Терешкова Терешкова</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>111-ИП</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>+7 985 302-49-22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>49 22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>16.09.2025</t>
         </is>

--- a/data/contracts_registry.xlsx
+++ b/data/contracts_registry.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
@@ -804,6 +804,66 @@
         </is>
       </c>
       <c r="F12" t="inlineStr">
+        <is>
+          <t>16.09.2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Иванов Иван Иванович</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>112-ИП</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>+8 918 342-34-35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78 08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>16.09.2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Терешкова Терешкова Терешкова</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>113-ИП</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>+7 985 302-49-22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>49 22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>16.09.2025</t>
         </is>

--- a/data/contracts_registry.xlsx
+++ b/data/contracts_registry.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
@@ -866,6 +866,96 @@
       <c r="F14" t="inlineStr">
         <is>
           <t>16.09.2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Гайд Вал Валерьевич</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>114-ИП</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>+7 949 639-34-15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>34 15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>02.10.2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Темняков Павел Геннадьевич</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>115-ИП</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>55 5</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>55 35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>02.10.2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Темняков Павел Геннадьевич</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>116-ИП</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>55 5</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>55 35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>02.10.2025</t>
         </is>
       </c>
     </row>

--- a/data/contracts_registry.xlsx
+++ b/data/contracts_registry.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
@@ -954,6 +954,36 @@
         </is>
       </c>
       <c r="F17" t="inlineStr">
+        <is>
+          <t>02.10.2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Гайдаров Валерий Валерьевич</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>117-ИП</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>+7 949 639-34-15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>34 15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>02.10.2025</t>
         </is>

--- a/data/contracts_registry.xlsx
+++ b/data/contracts_registry.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
@@ -986,6 +986,66 @@
       <c r="F18" t="inlineStr">
         <is>
           <t>02.10.2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Теличенко Анастасия Владимировна</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>118-ИП</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>+7 938 102-80-46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80 46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>03.10.2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Теличенко Анастасия Владимировна</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>119-ИП</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>+7 938 102-80-46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80 46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>03.10.2025</t>
         </is>
       </c>
     </row>

--- a/data/contracts_registry.xlsx
+++ b/data/contracts_registry.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Номер</t>
   </si>
@@ -34,96 +34,6 @@
   </si>
   <si>
     <t>Дата</t>
-  </si>
-  <si>
-    <t>101-ИП</t>
-  </si>
-  <si>
-    <t>78 08</t>
-  </si>
-  <si>
-    <t>16.09.2025</t>
-  </si>
-  <si>
-    <t>102-ИП</t>
-  </si>
-  <si>
-    <t>49 22</t>
-  </si>
-  <si>
-    <t>103-ИП</t>
-  </si>
-  <si>
-    <t>104-ИП</t>
-  </si>
-  <si>
-    <t>105-ИП</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>17.09.2025</t>
-  </si>
-  <si>
-    <t>106-ИП</t>
-  </si>
-  <si>
-    <t>107-ИП</t>
-  </si>
-  <si>
-    <t>108-ИП</t>
-  </si>
-  <si>
-    <t>109-ИП</t>
-  </si>
-  <si>
-    <t>110-ИП</t>
-  </si>
-  <si>
-    <t>111-ИП</t>
-  </si>
-  <si>
-    <t>112-ИП</t>
-  </si>
-  <si>
-    <t>113-ИП</t>
-  </si>
-  <si>
-    <t>114-ИП</t>
-  </si>
-  <si>
-    <t>34 15</t>
-  </si>
-  <si>
-    <t>02.10.2025</t>
-  </si>
-  <si>
-    <t>115-ИП</t>
-  </si>
-  <si>
-    <t>55 5</t>
-  </si>
-  <si>
-    <t>55 35</t>
-  </si>
-  <si>
-    <t>116-ИП</t>
-  </si>
-  <si>
-    <t>117-ИП</t>
-  </si>
-  <si>
-    <t>118-ИП</t>
-  </si>
-  <si>
-    <t>80 46</t>
-  </si>
-  <si>
-    <t>03.10.2025</t>
-  </si>
-  <si>
-    <t>119-ИП</t>
   </si>
 </sst>
 </file>
@@ -478,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,221 +423,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" t="s">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0"/>
